--- a/Nutnutrition_DB.xlsx
+++ b/Nutnutrition_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\바탕화면\barcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F8CF77-7B31-4C2A-9618-24291BD03BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69302FA-0E4F-4CC5-9B15-86ACD3E4CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1872" windowWidth="11508" windowHeight="8784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11916" yWindow="1344" windowWidth="15300" windowHeight="8784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nutnutrition_DB" sheetId="1" r:id="rId1"/>
@@ -2678,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4455,16 +4455,16 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>528</v>
+        <v>266</v>
       </c>
       <c r="D89">
-        <v>5.56</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>41.67</v>
+        <v>20</v>
       </c>
       <c r="F89">
-        <v>222</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
